--- a/AssignmentData.xlsx
+++ b/AssignmentData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="600" firstSheet="3" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10560" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" state="visible" r:id="rId1"/>
@@ -78,20 +78,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -368,11 +368,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="21.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="60.453125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="21.7265625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.453125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="60.453125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,7 +445,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -462,9 +462,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="113.26953125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="113.26953125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -516,8 +516,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -533,11 +533,11 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="21.453125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="7.54296875" customWidth="1" min="2" max="2"/>
-    <col width="58" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="21.453125"/>
+    <col customWidth="1" max="2" min="2" width="7.54296875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="58"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -649,7 +649,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -665,11 +665,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="24.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="49.453125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="24.7265625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.453125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="49.453125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -781,7 +781,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -797,11 +797,11 @@
       <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="19.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="52.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="19.7265625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="52.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -913,7 +913,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -929,11 +929,11 @@
       <selection activeCell="D18" sqref="A9:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="46.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="16.7265625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.453125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="46.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1045,7 +1045,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1061,11 +1061,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="23.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="43.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="23.54296875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="43.26953125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1177,7 +1177,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1193,11 +1193,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="20.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="66.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="20.7265625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="66.26953125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1312,11 +1312,11 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="23.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="166.26953125" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="23.1796875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.453125"/>
+    <col customWidth="1" max="3" min="3" width="166.26953125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1441,7 +1441,6 @@
           <t>Guest</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1454,10 +1453,9 @@
           <t>root</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1474,12 +1472,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="132.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="68" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="3.81640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="9.453125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="132.7265625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="68"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1560,7 +1558,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/AssignmentData.xlsx
+++ b/AssignmentData.xlsx
@@ -368,7 +368,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="21.7265625"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="5.453125"/>
@@ -462,7 +462,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="2" min="2" width="113.26953125"/>
   </cols>
@@ -533,7 +533,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="21.453125"/>
     <col customWidth="1" max="2" min="2" width="7.54296875"/>
@@ -665,7 +665,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="24.7265625"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="5.453125"/>
@@ -797,7 +797,7 @@
       <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="19.7265625"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
@@ -929,7 +929,7 @@
       <selection activeCell="D18" sqref="A9:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="16.7265625"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="5.453125"/>
@@ -1061,7 +1061,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="23.54296875"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
@@ -1193,7 +1193,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="20.7265625"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
@@ -1312,7 +1312,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="23.1796875"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="14.453125"/>
@@ -1472,7 +1472,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="3.81640625"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="9.453125"/>

--- a/AssignmentData.xlsx
+++ b/AssignmentData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10560" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="600" firstSheet="3" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" state="visible" r:id="rId1"/>
@@ -78,20 +78,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -368,11 +368,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="21.7265625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.453125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="60.453125"/>
+    <col width="21.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="60.453125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,7 +445,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -462,9 +462,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="113.26953125"/>
+    <col width="113.26953125" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -516,8 +516,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -533,11 +533,11 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="21.453125"/>
-    <col customWidth="1" max="2" min="2" width="7.54296875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="58"/>
+    <col width="21.453125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="7.54296875" customWidth="1" min="2" max="2"/>
+    <col width="58" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -649,7 +649,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -665,11 +665,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="24.7265625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.453125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="49.453125"/>
+    <col width="24.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="49.453125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -781,7 +781,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -797,11 +797,11 @@
       <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="19.7265625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="52.7265625"/>
+    <col width="19.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="52.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -913,7 +913,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -929,11 +929,11 @@
       <selection activeCell="D18" sqref="A9:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="16.7265625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.453125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="46.7265625"/>
+    <col width="16.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="46.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1045,7 +1045,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1061,11 +1061,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="23.54296875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="43.26953125"/>
+    <col width="23.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="43.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1177,7 +1177,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1193,11 +1193,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="20.7265625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="66.26953125"/>
+    <col width="20.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="66.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1312,11 +1312,11 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="23.1796875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="14.453125"/>
-    <col customWidth="1" max="3" min="3" width="166.26953125"/>
+    <col width="23.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.453125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="166.26953125" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1455,7 +1455,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1472,12 +1472,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="3.81640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="9.453125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="132.7265625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="68"/>
+    <col width="3.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.453125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="132.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="68" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1558,7 +1558,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/AssignmentData.xlsx
+++ b/AssignmentData.xlsx
@@ -368,7 +368,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="21.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -462,7 +462,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="113.26953125" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
@@ -533,7 +533,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="21.453125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="7.54296875" customWidth="1" min="2" max="2"/>
@@ -665,7 +665,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="24.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -797,7 +797,7 @@
       <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="19.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -929,7 +929,7 @@
       <selection activeCell="D18" sqref="A9:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="16.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -1061,7 +1061,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="23.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -1193,7 +1193,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="20.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -1312,7 +1312,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="23.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="14.453125" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -1472,7 +1472,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="3.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="9.453125" bestFit="1" customWidth="1" min="2" max="2"/>

--- a/AssignmentData.xlsx
+++ b/AssignmentData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="600" firstSheet="3" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1665" yWindow="3060" windowWidth="21600" windowHeight="11505" tabRatio="600" firstSheet="3" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" state="visible" r:id="rId1"/>
@@ -368,11 +368,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="60.453125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="60.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,9 +462,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="113.26953125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="113.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -533,10 +533,10 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21.453125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="7.54296875" customWidth="1" min="2" max="2"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="7.5703125" customWidth="1" min="2" max="2"/>
     <col width="58" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -665,11 +665,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="49.453125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="24.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="49.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -797,11 +797,11 @@
       <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="52.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="52.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -929,11 +929,11 @@
       <selection activeCell="D18" sqref="A9:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="46.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="16.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="46.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1061,11 +1061,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="23.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="43.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="43.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1189,15 +1189,15 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="66.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="66.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1306,17 +1306,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="166.26953125" customWidth="1" min="3" max="3"/>
+    <col width="23.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="166.28515625" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1451,6 +1451,18 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>root</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sun Feb 16 23:15:34 2020</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Guest</t>
         </is>
       </c>
     </row>
@@ -1472,11 +1484,11 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="3.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="132.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="3.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="132.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="68" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>

--- a/AssignmentData.xlsx
+++ b/AssignmentData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1665" yWindow="3060" windowWidth="21600" windowHeight="11505" tabRatio="600" firstSheet="3" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11505" windowWidth="21600" xWindow="1665" yWindow="3060"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" state="visible" r:id="rId1"/>
@@ -78,20 +78,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -368,11 +368,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="21.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="60.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="21.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.42578125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="60.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,7 +445,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -462,9 +462,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="113.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="113.28515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -516,8 +516,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -533,11 +533,11 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="7.5703125" customWidth="1" min="2" max="2"/>
-    <col width="58" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="21.42578125"/>
+    <col customWidth="1" max="2" min="2" width="7.5703125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="58"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -649,7 +649,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -665,11 +665,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="24.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="49.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="24.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.42578125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="49.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -781,7 +781,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -797,11 +797,11 @@
       <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="19.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="52.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="19.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="52.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -913,7 +913,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -929,11 +929,11 @@
       <selection activeCell="D18" sqref="A9:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="16.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="46.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="16.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.42578125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="46.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1045,7 +1045,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1061,11 +1061,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="23.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="43.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="23.5703125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="43.28515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1177,7 +1177,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1193,11 +1193,11 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="20.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="66.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="20.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="6"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="66.28515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1306,17 +1306,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="23.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="166.28515625" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="23.140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.42578125"/>
+    <col customWidth="1" max="3" min="3" width="166.28515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1466,8 +1466,25 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sun Feb 16 23:37:55 2020</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Beef Hamburgers x1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1484,12 +1501,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="3.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="132.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="68" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="3.85546875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="9.42578125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="132.7109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="68"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1570,7 +1587,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/AssignmentData.xlsx
+++ b/AssignmentData.xlsx
@@ -1306,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1483,6 +1483,45 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tue Feb 18 20:00:29 2020</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tue Feb 18 20:00:29 2020</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tue Feb 18 20:00:29 2020</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1495,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1586,6 +1625,21 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>db7b6fc0e93ed83560bc0350a46c1d2deae49b6f28828d0409b09b06c39c958229be14435269052ea9405e648d6adc7f9e1dd207f796ccde5f066b5d595f6cda</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
